--- a/Vuejs/vue01docs/Vue정리-202000606.xlsx
+++ b/Vuejs/vue01docs/Vue정리-202000606.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIS20201018.VueReact\VueReact\Vuejs\vue01docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="24240" windowHeight="12780" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="용어" sheetId="4" r:id="rId1"/>
@@ -213,10 +218,6 @@
   </si>
   <si>
     <t>인스턴스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지역 컴포넌트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -672,10 +673,6 @@
       <t xml:space="preserve">cmp&gt;
 </t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일 단위의 컴포넌트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -790,6 +787,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>npdtmc^2w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인스턴스의 속성을 배운다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴포넌트의 속성을 배운다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 컴포넌트의 속성을 배운다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>component --.dispatch()--&gt; actions --.commit()--&gt; mutations(≈Dispatcher) --&gt; state --&gt; getters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Vue.component('global-component', {
     name : "",
@@ -826,23 +843,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>npdtmc^2w</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인스턴스의 속성을 배운다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컴포넌트의 속성을 배운다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일 컴포넌트의 속성을 배운다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>component --.dispatch()--&gt; actions --.commit()--&gt; mutations(≈Dispatcher) --&gt; state --&gt; getters</t>
+    <t>지역 컴포넌트(로컬)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 단위 컴포넌트(싱글)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -850,7 +855,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1190,6 +1195,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3193,7 +3201,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3228,7 +3236,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3443,7 +3451,7 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.25" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="8" customWidth="1"/>
@@ -3455,7 +3463,7 @@
     <col min="10" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="19.5">
       <c r="A1" s="36" t="s">
         <v>39</v>
       </c>
@@ -3468,9 +3476,9 @@
       <c r="H1" s="36"/>
       <c r="I1" s="24"/>
     </row>
-    <row r="2" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="25.5" customHeight="1">
       <c r="A2" s="36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
@@ -3481,7 +3489,7 @@
       <c r="H2" s="13"/>
       <c r="I2" s="24"/>
     </row>
-    <row r="3" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="19.5">
       <c r="A3" s="13" t="s">
         <v>40</v>
       </c>
@@ -3494,7 +3502,7 @@
       <c r="H3" s="13"/>
       <c r="I3" s="24"/>
     </row>
-    <row r="4" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="19.5">
       <c r="A4" s="24"/>
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
@@ -3502,7 +3510,7 @@
       <c r="E4" s="24"/>
       <c r="F4" s="24"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5" s="6" t="s">
         <v>16</v>
       </c>
@@ -3510,7 +3518,7 @@
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="14.25">
       <c r="A6" s="37" t="s">
         <v>17</v>
       </c>
@@ -3526,7 +3534,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="14.25">
       <c r="A7" s="26" t="s">
         <v>19</v>
       </c>
@@ -3546,7 +3554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="14.25">
       <c r="A8" s="26" t="s">
         <v>21</v>
       </c>
@@ -3566,7 +3574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="14.25">
       <c r="A9" s="26" t="s">
         <v>38</v>
       </c>
@@ -3582,7 +3590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" s="29"/>
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
@@ -3593,7 +3601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="14.25">
       <c r="A11" s="26" t="s">
         <v>23</v>
       </c>
@@ -3606,7 +3614,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="14.25">
       <c r="A12" s="26" t="s">
         <v>24</v>
       </c>
@@ -3617,7 +3625,7 @@
       <c r="G12" s="33"/>
       <c r="H12" s="34"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13" s="26" t="s">
         <v>26</v>
       </c>
@@ -3655,7 +3663,7 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="14.375" style="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="21" bestFit="1" customWidth="1"/>
@@ -3664,7 +3672,7 @@
     <col min="5" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
@@ -3675,7 +3683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="38" t="s">
         <v>10</v>
       </c>
@@ -3683,65 +3691,65 @@
         <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="28.5">
       <c r="A3" s="38"/>
       <c r="B3" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="38"/>
       <c r="B4" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="22"/>
     </row>
-    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="42.75">
       <c r="A5" s="38"/>
       <c r="B5" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="42.75">
       <c r="A6" s="38"/>
       <c r="B6" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="38"/>
       <c r="B7" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="15"/>
     </row>
-    <row r="8" spans="1:3" ht="60" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="57">
       <c r="A8" s="38"/>
       <c r="B8" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15">
       <c r="A9" s="23"/>
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="15">
       <c r="A10" s="23"/>
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
@@ -3764,89 +3772,89 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="46.75" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="46.75" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.125" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="78.75" style="8" customWidth="1"/>
     <col min="3" max="16384" width="46.75" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="27">
       <c r="A2" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="28.5" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="27">
       <c r="A4" s="39"/>
       <c r="B4" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="27">
       <c r="A7" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="42.75" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="40.5">
       <c r="A8" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="27">
       <c r="A9" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="28.5" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="27">
       <c r="A10" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -3867,7 +3875,7 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="18" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="16" bestFit="1" customWidth="1"/>
@@ -3876,7 +3884,7 @@
     <col min="5" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="8" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="8" customFormat="1" ht="19.5">
       <c r="A1" s="36" t="s">
         <v>39</v>
       </c>
@@ -3888,7 +3896,7 @@
       <c r="G1" s="36"/>
       <c r="H1" s="36"/>
     </row>
-    <row r="2" spans="1:8" s="8" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="8" customFormat="1" ht="20.25">
       <c r="A2" s="36" t="s">
         <v>46</v>
       </c>
@@ -3900,7 +3908,7 @@
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
     </row>
-    <row r="3" spans="1:8" s="8" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="8" customFormat="1" ht="19.5">
       <c r="A3" s="13" t="s">
         <v>40</v>
       </c>
@@ -3912,7 +3920,7 @@
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
     </row>
-    <row r="4" spans="1:8" s="8" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="8" customFormat="1" ht="19.5">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -3922,9 +3930,9 @@
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="14.25">
       <c r="A5" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>44</v>
@@ -3933,66 +3941,66 @@
         <v>2</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="42.75" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="40.5">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" s="14"/>
     </row>
-    <row r="7" spans="1:8" ht="42.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="40.5">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" s="14"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="27">
       <c r="A8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="14"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="14"/>
     </row>
-    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="30" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="17"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="14"/>
     </row>
-    <row r="12" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="32.25" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="17"/>
     </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="28.5">
       <c r="A13" s="15" t="s">
         <v>12</v>
       </c>
@@ -4006,93 +4014,93 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="27">
       <c r="A14" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>47</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="27">
       <c r="A15" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>48</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="34.5" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="19"/>
       <c r="C16" s="2"/>
       <c r="D16" s="20"/>
     </row>
-    <row r="17" spans="1:4" ht="57" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="67.5">
       <c r="A17" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>45</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="14.25">
       <c r="A18" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>45</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="30.75" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="19"/>
       <c r="C19" s="2"/>
       <c r="D19" s="20"/>
     </row>
-    <row r="20" spans="1:4" ht="99.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="94.5">
       <c r="A20" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="57" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="54">
       <c r="A21" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>15</v>
@@ -4114,11 +4122,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="41.125" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="41.125" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.875" style="8" customWidth="1"/>
     <col min="2" max="2" width="18.625" style="8" bestFit="1" customWidth="1"/>
@@ -4127,134 +4135,134 @@
     <col min="6" max="16384" width="41.125" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5">
       <c r="B2" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
       <c r="B3" s="8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
       <c r="B4" s="8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="14.25">
+      <c r="B7" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="310.5">
+      <c r="B8" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="299.25" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>90</v>
-      </c>
       <c r="D9" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
       <c r="B10" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:5" ht="18">
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="2:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" ht="18">
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="2:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" ht="18">
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="2:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" ht="18">
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" ht="14.25">
       <c r="E15" s="12"/>
     </row>
-    <row r="16" spans="2:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" ht="18">
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="5:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:5" ht="18">
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="5:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:5" ht="18">
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="5:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:5" ht="18">
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="5:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:5" ht="18.75">
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="5:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:5" ht="18.75">
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:5">
       <c r="E22" s="12"/>
     </row>
-    <row r="23" spans="5:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:5" ht="18.75">
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:5">
       <c r="E24" s="12"/>
     </row>
-    <row r="25" spans="5:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:5" ht="18.75">
       <c r="E25" s="3"/>
     </row>
   </sheetData>
@@ -4268,11 +4276,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="8"/>
     <col min="2" max="2" width="11" style="8" bestFit="1" customWidth="1"/>
@@ -4284,125 +4292,125 @@
     <col min="8" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="B2" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" s="8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
+    <row r="4" spans="1:6">
+      <c r="B4" s="8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="9"/>
       <c r="B6" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="270.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:6" ht="256.5">
       <c r="A7" s="9"/>
       <c r="B7" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>109</v>
-      </c>
       <c r="F7" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="106.5" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="103.5">
       <c r="A8" s="9"/>
       <c r="B8" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>109</v>
-      </c>
       <c r="F8" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="171" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="162">
       <c r="A9" s="9"/>
       <c r="B9" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="E9" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="99.75" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="94.5">
       <c r="A10" s="9"/>
       <c r="B10" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="156.75" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="148.5">
       <c r="A11" s="9"/>
       <c r="B11" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>114</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
